--- a/Lab_2/Lab_2_Tram Xuan Trong.xlsx
+++ b/Lab_2/Lab_2_Tram Xuan Trong.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mon_Test\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720DC45-32F9-40A2-A4DA-02F00A7AD3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF66E92E-882C-46A7-AE2D-D7094527B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0751779-BE5C-43C0-9BB7-20637C1D0093}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -391,6 +391,27 @@
   </si>
   <si>
     <t xml:space="preserve">10, 7, 5, 6, 2 </t>
+  </si>
+  <si>
+    <t>(rỗng)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, 10, 10, 10, 10 </t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>Chocaitendaihon20kytune</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>lên lớp</t>
   </si>
 </sst>
 </file>
@@ -643,13 +664,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -658,7 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -669,13 +686,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -684,40 +700,15 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -730,41 +721,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -772,6 +752,34 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,14 +1096,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96803B3-A208-41F2-AA1F-D36109E91226}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
@@ -1110,13 +1118,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1124,19 +1132,19 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1144,1249 +1152,1214 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>46174</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="F10" s="6">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="6">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="F11" s="5">
         <f>F10+1</f>
         <v>2</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="6">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="F12" s="5">
         <f t="shared" ref="F12:F15" si="0">F11+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="F13" s="6">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="6">
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="F15" s="6">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="F17" s="24" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="F17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="F18" s="19" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="49"/>
+      <c r="F18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>0.03</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="F19" s="20" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="49"/>
+      <c r="F19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>0.05</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="F20" s="20" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="49"/>
+      <c r="F20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="F21" s="38" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="49"/>
+      <c r="F21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="F22" s="40" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="49"/>
+      <c r="F22" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="49"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="46"/>
+      <c r="I23" s="15"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="F24" s="16" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="49"/>
+      <c r="F24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
+      <c r="G24" s="46"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>0</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>123</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>10</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>0.03</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>1234567</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>100</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>0.05</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>1500</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>11223334445</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="F32" s="24" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="F32" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="F33" s="19" t="s">
+      <c r="D33" s="15"/>
+      <c r="F33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="F34" s="44" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="D34" s="15"/>
+      <c r="F34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
+      <c r="I34" s="15"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="F35" s="20" t="s">
+      <c r="D35" s="15"/>
+      <c r="F35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="F36" s="20" t="s">
+      <c r="D36" s="15"/>
+      <c r="F36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="F37" s="38" t="s">
+      <c r="D37" s="15"/>
+      <c r="F37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="F38" s="40" t="s">
+      <c r="D38" s="15"/>
+      <c r="F38" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="41" t="s">
+      <c r="G38" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="46"/>
+      <c r="D39" s="15"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="46"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="F40" s="16" t="s">
+      <c r="B40" s="46"/>
+      <c r="D40" s="15"/>
+      <c r="F40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
+      <c r="G40" s="46"/>
+      <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>39</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>41</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>168</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>210</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="F48" s="24" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="F48" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="F49" s="19" t="s">
+      <c r="D49" s="15"/>
+      <c r="F49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
+      <c r="I49" s="15"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="F50" s="44" t="s">
+      <c r="D50" s="15"/>
+      <c r="F50" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>0.5</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="F51" s="20" t="s">
+      <c r="D51" s="15"/>
+      <c r="F51" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>0.7</v>
       </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="F52" s="20" t="s">
+      <c r="D52" s="15"/>
+      <c r="F52" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="15"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="F53" s="38" t="s">
+      <c r="D53" s="15"/>
+      <c r="F53" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G53" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="F54" s="40" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="D54" s="15"/>
+      <c r="F54" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="F55" s="47" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="46"/>
+      <c r="D55" s="15"/>
+      <c r="F55" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="35"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="F56" s="16" t="s">
+      <c r="B56" s="46"/>
+      <c r="D56" s="15"/>
+      <c r="F56" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="15"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="21" t="s">
+      <c r="F57" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="I57" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>15</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I58" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>21</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>0.5</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>12345</v>
       </c>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>28</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="9">
         <v>0.7</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H60" s="48" t="s">
+      <c r="H60" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>31</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E65" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="56" t="s">
+      <c r="F65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="56" t="s">
+      <c r="G65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H65" s="56" t="s">
+      <c r="H65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I65" s="58" t="s">
+      <c r="I65" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="J65" s="58" t="s">
+      <c r="J65" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H66" s="57" t="s">
+      <c r="H66" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="I66" s="6" t="s">
+      <c r="I66" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H67" s="57" t="s">
+      <c r="H67" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J67" s="6" t="s">
+      <c r="J67" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="6" t="s">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H68" s="57" t="s">
+      <c r="H68" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="18"/>
+      <c r="E73" s="15"/>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
+      <c r="A74" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="60" t="s">
+      <c r="B74" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="59" t="s">
+      <c r="D74" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="18"/>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="18"/>
+      <c r="E75" s="15">
+        <f>(6+9+0+7+6)/5</f>
+        <v>5.6</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="18"/>
+      <c r="E76" s="15">
+        <f>(10+7+5+6+2)/5</f>
+        <v>6</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="18"/>
+      <c r="B77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J77" s="15"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="53"/>
+      <c r="B78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2398,11 +2371,6 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:J9"/>
@@ -2412,6 +2380,11 @@
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
